--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H2">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>1.160089022966</v>
+        <v>1.120262468545334</v>
       </c>
       <c r="R2">
-        <v>10.440801206694</v>
+        <v>10.082362216908</v>
       </c>
       <c r="S2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="T2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H3">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>13.249742947703</v>
+        <v>11.80837161094633</v>
       </c>
       <c r="R3">
-        <v>119.247686529327</v>
+        <v>106.275344498517</v>
       </c>
       <c r="S3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="T3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H4">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>3.958845801721</v>
+        <v>7.848204134165667</v>
       </c>
       <c r="R4">
-        <v>35.62961221548899</v>
+        <v>70.633837207491</v>
       </c>
       <c r="S4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="T4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H5">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.142572513374</v>
+        <v>0.1638959669043333</v>
       </c>
       <c r="R5">
-        <v>1.283152620366</v>
+        <v>1.475063702139</v>
       </c>
       <c r="S5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="T5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
     </row>
   </sheetData>
